--- a/TestdataIni.xlsx
+++ b/TestdataIni.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sayali\Selenium Project\InitiativeAutomationFramework\InitiativeAutomationFramework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A07136-A0AF-429C-876A-B3FF2169CB23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB4585C4-711A-4246-B280-0F1B5B378772}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15860" windowHeight="2720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -46,9 +42,6 @@
     <t>NOI</t>
   </si>
   <si>
-    <t>Quick Change Request</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -64,9 +57,6 @@
     <t>Thu Sep 04 2025</t>
   </si>
   <si>
-    <t>Thu Oct 04 2025</t>
-  </si>
-  <si>
     <t>EndDate</t>
   </si>
   <si>
@@ -82,19 +72,32 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Automation Testing Demo AI_thursne9</t>
+    <t>Full Change Lifecycle</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 2025</t>
+  </si>
+  <si>
+    <t>Automation Testing Demo AI_47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -649,29 +655,29 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -686,24 +692,25 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestdataIni.xlsx
+++ b/TestdataIni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB4585C4-711A-4246-B280-0F1B5B378772}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{591698D5-BFAE-4A05-A18B-CCF946461C8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Tue Nov 04 2025</t>
   </si>
   <si>
-    <t>Automation Testing Demo AI_47</t>
+    <t>Automation Testing Demo AI_49</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/TestdataIni.xlsx
+++ b/TestdataIni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{591698D5-BFAE-4A05-A18B-CCF946461C8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CD998253-D963-4069-827D-4B29EB57C05A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Tue Nov 04 2025</t>
   </si>
   <si>
-    <t>Automation Testing Demo AI_49</t>
+    <t>Automation Testing Demo AI_50</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/TestdataIni.xlsx
+++ b/TestdataIni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CD998253-D963-4069-827D-4B29EB57C05A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{36D1B593-64FF-4DD7-B78A-1B5D21772096}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Tue Nov 04 2025</t>
   </si>
   <si>
-    <t>Automation Testing Demo AI_50</t>
+    <t>Automation Testing Demo AI_51</t>
   </si>
 </sst>
 </file>
